--- a/biology/Botanique/Quercus_semecarpifolia/Quercus_semecarpifolia.xlsx
+++ b/biology/Botanique/Quercus_semecarpifolia/Quercus_semecarpifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus semecarpifolia est une espèce de d'arbres de la famille des Fagaceae de la section Quercus et du sous-genre Quercus.
-Cette espèce a été décrite pour la première fois par le botaniste britannique James Edward Smith (1759-1828)[1].
+Cette espèce a été décrite pour la première fois par le botaniste britannique James Edward Smith (1759-1828).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quercus cassura Buch.-Ham. ex D.Don ;
 Quercus obtusifolia D.Don.</t>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces, variétés et formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (4 mars 2014)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (4 mars 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Quercus semecarpifolia subsp. glabra (Franch.) Hand.-Mazz.
 variété Quercus semecarpifolia var. glabra Franch.
 variété Quercus semecarpifolia var. longispica Hand.-Mazz.
